--- a/results/A-10.xlsx
+++ b/results/A-10.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-10432.30620199746</v>
+        <v>-10520.89681921756</v>
       </c>
       <c r="C2">
-        <v>21062.95567915486</v>
+        <v>21184.44377802947</v>
       </c>
       <c r="D2">
-        <v>-9967.001357275592</v>
+        <v>-10000.49245589557</v>
       </c>
       <c r="E2">
-        <v>-663.6481198813792</v>
+        <v>-663.0545029160467</v>
       </c>
       <c r="F2">
-        <v>62.06666285713999</v>
+        <v>61.93692125772179</v>
       </c>
       <c r="G2">
-        <v>45.13115928038087</v>
+        <v>45.15013065477399</v>
       </c>
       <c r="H2">
-        <v>62.39019298225304</v>
+        <v>62.25406853330918</v>
       </c>
       <c r="I2">
-        <v>45.29369707343221</v>
+        <v>45.3534740409537</v>
       </c>
       <c r="J2">
-        <v>62.06666285829249</v>
+        <v>61.93692125784037</v>
       </c>
       <c r="K2">
-        <v>45.88652174048912</v>
+        <v>45.98047043381223</v>
       </c>
       <c r="L2">
-        <v>54.93552971618806</v>
+        <v>55.01990173258815</v>
       </c>
       <c r="M2">
         <v>45</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>49.95503165774653</v>
+        <v>49.86825444426466</v>
       </c>
       <c r="P2">
-        <v>59.23857336753656</v>
+        <v>59.28641779413653</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="R2">
-        <v>8.800030366226681</v>
+        <v>8.953380639800754</v>
       </c>
       <c r="S2">
-        <v>-17.60006076390322</v>
+        <v>-17.90676128295929</v>
       </c>
       <c r="T2">
-        <v>8.80003039767654</v>
+        <v>8.953380643158548</v>
       </c>
       <c r="U2">
         <v>15</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-90.20640322799842</v>
+        <v>-92.33646748703023</v>
       </c>
       <c r="Y2">
-        <v>-144.5430218416236</v>
+        <v>-142.3360080380841</v>
       </c>
       <c r="Z2">
-        <v>-90.20640322799838</v>
+        <v>-92.33646748703015</v>
       </c>
       <c r="AB2">
         <v>15</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-8.800030366226681</v>
+        <v>-8.953380639800754</v>
       </c>
       <c r="AF2">
-        <v>8.80003039767654</v>
+        <v>8.953380643158548</v>
       </c>
       <c r="AG2">
-        <v>8.800030366226681</v>
+        <v>8.953380639800754</v>
       </c>
       <c r="AH2">
-        <v>-17.60006076390322</v>
+        <v>-17.90676128295929</v>
       </c>
       <c r="AI2">
-        <v>8.80003039767654</v>
+        <v>8.953380643158548</v>
       </c>
       <c r="AJ2">
-        <v>8.800030366226681</v>
+        <v>8.953380639800754</v>
       </c>
       <c r="AK2">
-        <v>-8.80003039767654</v>
+        <v>-8.953380643158548</v>
       </c>
       <c r="AL2">
-        <v>27.16830930681258</v>
+        <v>24.99977027552693</v>
       </c>
       <c r="AM2">
-        <v>-27.16830930681257</v>
+        <v>-24.99977027552692</v>
       </c>
       <c r="AN2">
-        <v>-90.20640322799842</v>
+        <v>-92.33646748703023</v>
       </c>
       <c r="AO2">
-        <v>-144.5430218416236</v>
+        <v>-142.3360080380841</v>
       </c>
       <c r="AP2">
-        <v>-90.20640322799838</v>
+        <v>-92.33646748703015</v>
       </c>
       <c r="AQ2">
-        <v>-27.16830930681258</v>
+        <v>-24.99977027552693</v>
       </c>
       <c r="AR2">
-        <v>27.16830930681257</v>
+        <v>24.99977027552692</v>
       </c>
       <c r="AS2">
-        <v>62.06666285713999</v>
+        <v>61.93692125772179</v>
       </c>
       <c r="AT2">
-        <v>62.06666285713999</v>
+        <v>61.93692125772179</v>
       </c>
       <c r="AU2">
-        <v>62.39019298225304</v>
+        <v>62.25406853330901</v>
       </c>
       <c r="AV2">
-        <v>62.39019298225304</v>
+        <v>62.25406853330901</v>
       </c>
       <c r="AW2">
-        <v>62.39019298225304</v>
+        <v>62.25406853330918</v>
       </c>
       <c r="AX2">
-        <v>62.06666285829249</v>
+        <v>61.93692125784037</v>
       </c>
       <c r="AY2">
-        <v>62.06666285829249</v>
+        <v>61.93692125784037</v>
       </c>
       <c r="AZ2">
-        <v>45.13115928038087</v>
+        <v>45.15013065477399</v>
       </c>
       <c r="BA2">
-        <v>45.13115928038087</v>
+        <v>45.15013065477399</v>
       </c>
       <c r="BB2">
-        <v>45.29369707343221</v>
+        <v>45.3534740409537</v>
       </c>
       <c r="BC2">
-        <v>44.91844074384147</v>
+        <v>44.94092423767461</v>
       </c>
       <c r="BD2">
-        <v>45.66895340168253</v>
+        <v>45.76602384407818</v>
       </c>
       <c r="BE2">
-        <v>45.88652174048912</v>
+        <v>45.98047043381223</v>
       </c>
       <c r="BF2">
-        <v>45.88652174048912</v>
+        <v>45.98047043381217</v>
       </c>
       <c r="BG2">
-        <v>54.93552971618806</v>
+        <v>55.01990173258815</v>
       </c>
       <c r="BH2">
         <v>45</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>49.95503165774653</v>
+        <v>49.86825444426466</v>
       </c>
       <c r="BK2">
-        <v>59.23857336753656</v>
+        <v>59.28641779413653</v>
       </c>
       <c r="BL2">
         <v>45</v>
